--- a/database/students.xlsx
+++ b/database/students.xlsx
@@ -1297,7 +1297,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1343,11 +1343,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1370,6 +1370,16 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:B100" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="B1:B100"/>
+  <tableColumns count="1">
+    <tableColumn name="Rossi" id="1" totalsRowLabel="Total"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2014,7 +2024,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
@@ -2040,7 +2050,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
@@ -4278,5 +4288,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>